--- a/tablas/brecha con racio.xlsx
+++ b/tablas/brecha con racio.xlsx
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>635565.55776</v>
+        <v>45397.53984</v>
       </c>
       <c r="H3">
         <v>319800</v>
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -592,7 +592,7 @@
         <v>134992.61952</v>
       </c>
       <c r="G4">
-        <v>363180.31872</v>
+        <v>317782.77888</v>
       </c>
       <c r="H4">
         <v>24600</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>408577.85856</v>
+        <v>136192.61952</v>
       </c>
       <c r="H5">
         <v>172200</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>226987.6992</v>
+        <v>45397.53984</v>
       </c>
       <c r="H6">
         <v>98400</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>272385.23904</v>
+        <v>90795.07968</v>
       </c>
       <c r="H7">
         <v>49200</v>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -708,7 +708,7 @@
         <v>33748.15487999999</v>
       </c>
       <c r="G8">
-        <v>544770.47808</v>
+        <v>45397.53984</v>
       </c>
       <c r="H8">
         <v>246000</v>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -737,7 +737,7 @@
         <v>33748.15487999999</v>
       </c>
       <c r="G9">
-        <v>1361926.1952</v>
+        <v>590168.01792</v>
       </c>
       <c r="H9">
         <v>295200</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>226987.6992</v>
+        <v>136192.61952</v>
       </c>
       <c r="H10">
         <v>49200</v>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -795,7 +795,7 @@
         <v>67496.30975999999</v>
       </c>
       <c r="G11">
-        <v>181590.15936</v>
+        <v>226987.6992</v>
       </c>
       <c r="H11">
         <v>49200</v>
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>33748.15487999999</v>
       </c>
       <c r="G12">
-        <v>226987.6992</v>
+        <v>181590.15936</v>
       </c>
       <c r="H12">
         <v>24600</v>
@@ -841,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>21</v>
@@ -853,7 +853,7 @@
         <v>168740.7744</v>
       </c>
       <c r="G13">
-        <v>1316528.65536</v>
+        <v>272385.23904</v>
       </c>
       <c r="H13">
         <v>516600</v>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -882,7 +882,7 @@
         <v>33748.15487999999</v>
       </c>
       <c r="G14">
-        <v>272385.23904</v>
+        <v>45397.53984</v>
       </c>
       <c r="H14">
         <v>123000</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>181590.15936</v>
+        <v>45397.53984</v>
       </c>
       <c r="H16">
         <v>73800</v>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>72</v>
@@ -969,7 +969,7 @@
         <v>33748.15487999999</v>
       </c>
       <c r="G17">
-        <v>3858790.8864</v>
+        <v>544770.47808</v>
       </c>
       <c r="H17">
         <v>1771200</v>
@@ -986,7 +986,7 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>19</v>
@@ -998,7 +998,7 @@
         <v>404977.85856</v>
       </c>
       <c r="G18">
-        <v>953348.33664</v>
+        <v>45397.53984</v>
       </c>
       <c r="H18">
         <v>467400</v>
@@ -1015,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>67496.30975999999</v>
       </c>
       <c r="G19">
-        <v>45397.53984</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>226987.6992</v>
+        <v>45397.53984</v>
       </c>
       <c r="H20">
         <v>98400</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>90795.07968</v>
+        <v>136192.61952</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1114,7 +1114,7 @@
         <v>101244.46464</v>
       </c>
       <c r="G22">
-        <v>408577.85856</v>
+        <v>181590.15936</v>
       </c>
       <c r="H22">
         <v>98400</v>
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -1143,7 +1143,7 @@
         <v>134992.61952</v>
       </c>
       <c r="G23">
-        <v>499372.93824</v>
+        <v>136192.61952</v>
       </c>
       <c r="H23">
         <v>196800</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>272385.23904</v>
+        <v>90795.07968</v>
       </c>
       <c r="H24">
         <v>123000</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>499372.93824</v>
+        <v>136192.61952</v>
       </c>
       <c r="H26">
         <v>172200</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>317782.77888</v>
+        <v>90795.07968</v>
       </c>
       <c r="H27">
         <v>123000</v>
@@ -1276,7 +1276,7 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="D28">
         <v>207</v>
@@ -1288,7 +1288,7 @@
         <v>1248681.73056</v>
       </c>
       <c r="G28">
-        <v>13573864.41216</v>
+        <v>3767995.80672</v>
       </c>
       <c r="H28">
         <v>5092200</v>
